--- a/Code/Results/Cases/Case_9_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.27408493109285</v>
+        <v>12.22946415633934</v>
       </c>
       <c r="C2">
-        <v>8.525186129566988</v>
+        <v>8.51458856072737</v>
       </c>
       <c r="D2">
-        <v>5.373307192857185</v>
+        <v>5.427252485515456</v>
       </c>
       <c r="E2">
-        <v>16.07102381583221</v>
+        <v>16.05297605540619</v>
       </c>
       <c r="F2">
-        <v>17.44432832898651</v>
+        <v>16.94398669453901</v>
       </c>
       <c r="G2">
-        <v>21.50746466088081</v>
+        <v>20.01410017234125</v>
       </c>
       <c r="H2">
-        <v>1.613077207362211</v>
+        <v>1.640709122262973</v>
       </c>
       <c r="I2">
-        <v>2.694285698668904</v>
+        <v>2.597407363570087</v>
       </c>
       <c r="J2">
-        <v>8.89760384003289</v>
+        <v>9.142778815907336</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.71065429968751</v>
       </c>
       <c r="M2">
-        <v>11.40226281797079</v>
+        <v>8.567887849230079</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.00646761951299</v>
+        <v>11.48773661361676</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.34586285413978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.07856409979748</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.95027277706099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.53558053619467</v>
+        <v>11.52737768681601</v>
       </c>
       <c r="C3">
-        <v>8.29916652299721</v>
+        <v>8.178840282997193</v>
       </c>
       <c r="D3">
-        <v>5.162443431856738</v>
+        <v>5.194927901510301</v>
       </c>
       <c r="E3">
-        <v>15.19996075480574</v>
+        <v>15.20242277651506</v>
       </c>
       <c r="F3">
-        <v>17.18503249626906</v>
+        <v>16.74143468909399</v>
       </c>
       <c r="G3">
-        <v>21.23503993245569</v>
+        <v>19.86357444436701</v>
       </c>
       <c r="H3">
-        <v>1.701270933233292</v>
+        <v>1.666562697198452</v>
       </c>
       <c r="I3">
-        <v>2.83488710685872</v>
+        <v>2.721072058604626</v>
       </c>
       <c r="J3">
-        <v>8.931928530180786</v>
+        <v>9.160144085102468</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.87726559719223</v>
       </c>
       <c r="M3">
-        <v>10.87154716232923</v>
+        <v>8.624715344998499</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.2065465297037</v>
+        <v>10.94259823330587</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.33368050782332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.27293709271533</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.9751435691738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.05510269859962</v>
+        <v>11.07104383337046</v>
       </c>
       <c r="C4">
-        <v>8.159099614893311</v>
+        <v>7.969806498422775</v>
       </c>
       <c r="D4">
-        <v>5.028166365586549</v>
+        <v>5.046932004832234</v>
       </c>
       <c r="E4">
-        <v>14.63806768974746</v>
+        <v>14.65417519014102</v>
       </c>
       <c r="F4">
-        <v>17.03114720385579</v>
+        <v>16.62155303849109</v>
       </c>
       <c r="G4">
-        <v>21.07534782328491</v>
+        <v>19.78047206801897</v>
       </c>
       <c r="H4">
-        <v>1.825137209189177</v>
+        <v>1.786387590914317</v>
       </c>
       <c r="I4">
-        <v>2.925221638761582</v>
+        <v>2.800876770539782</v>
       </c>
       <c r="J4">
-        <v>8.955404418506115</v>
+        <v>9.171619215852033</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.98211207253156</v>
       </c>
       <c r="M4">
-        <v>10.53175233769461</v>
+        <v>8.677066960978161</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.6906366956215</v>
+        <v>10.59369570542819</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.33116006452053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.75335637110233</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.99433232388299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.84951169746113</v>
+        <v>10.87588772823657</v>
       </c>
       <c r="C5">
-        <v>8.108631469662773</v>
+        <v>7.891738588610497</v>
       </c>
       <c r="D5">
-        <v>4.973958110272236</v>
+        <v>4.986991807272611</v>
       </c>
       <c r="E5">
-        <v>14.40098190249443</v>
+        <v>14.42297928655261</v>
       </c>
       <c r="F5">
-        <v>16.96154568454327</v>
+        <v>16.56591533435279</v>
       </c>
       <c r="G5">
-        <v>20.99775557160985</v>
+        <v>19.73489346740188</v>
       </c>
       <c r="H5">
-        <v>1.876890569411761</v>
+        <v>1.836456400766926</v>
       </c>
       <c r="I5">
-        <v>2.965972766186177</v>
+        <v>2.837817320984467</v>
       </c>
       <c r="J5">
-        <v>8.963273187969067</v>
+        <v>9.174317973318203</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.02017130645757</v>
       </c>
       <c r="M5">
-        <v>10.39173058865548</v>
+        <v>8.699831821345159</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.47539598915332</v>
+        <v>10.44986555387498</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.32554415440746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.53654218912482</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.99760103867963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.81125895466321</v>
+        <v>10.83955907468848</v>
       </c>
       <c r="C6">
-        <v>8.108726150875617</v>
+        <v>7.888259384919816</v>
       </c>
       <c r="D6">
-        <v>4.966947548234449</v>
+        <v>4.979003244070851</v>
       </c>
       <c r="E6">
-        <v>14.3594828712587</v>
+        <v>14.38254478117174</v>
       </c>
       <c r="F6">
-        <v>16.93996179117479</v>
+        <v>16.5470630945836</v>
       </c>
       <c r="G6">
-        <v>20.96735440897315</v>
+        <v>19.71038440656508</v>
       </c>
       <c r="H6">
-        <v>1.885734456987542</v>
+        <v>1.845009566650678</v>
       </c>
       <c r="I6">
-        <v>2.976567468023262</v>
+        <v>2.848456878728971</v>
       </c>
       <c r="J6">
-        <v>8.961819660235173</v>
+        <v>9.172116407034517</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.02005866006216</v>
       </c>
       <c r="M6">
-        <v>10.37054089066608</v>
+        <v>8.700335244018122</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.44065728736325</v>
+        <v>10.42798317615823</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.31759462206335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.50148878902759</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.99148102383833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.04245089115791</v>
+        <v>11.05917816353199</v>
       </c>
       <c r="C7">
-        <v>8.181476247001859</v>
+        <v>7.992449764440908</v>
       </c>
       <c r="D7">
-        <v>5.033011666555774</v>
+        <v>5.054868025582861</v>
       </c>
       <c r="E7">
-        <v>14.63027861705654</v>
+        <v>14.64622905109361</v>
       </c>
       <c r="F7">
-        <v>17.00274761060093</v>
+        <v>16.5799953019895</v>
       </c>
       <c r="G7">
-        <v>21.02636865915698</v>
+        <v>19.80436440478269</v>
       </c>
       <c r="H7">
-        <v>1.82631717740652</v>
+        <v>1.787849976707985</v>
       </c>
       <c r="I7">
-        <v>2.935734985991684</v>
+        <v>2.813600744740906</v>
       </c>
       <c r="J7">
-        <v>8.947889413864191</v>
+        <v>9.132433339588495</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.95915284676605</v>
       </c>
       <c r="M7">
-        <v>10.53598543990414</v>
+        <v>8.663404410635511</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.69141413027234</v>
+        <v>10.59693211012298</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.31176106351256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.75369104094037</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.96611172905547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.01290039547692</v>
+        <v>11.98169922272657</v>
       </c>
       <c r="C8">
-        <v>8.477519231785518</v>
+        <v>8.426263680455712</v>
       </c>
       <c r="D8">
-        <v>5.308739586836066</v>
+        <v>5.365643906758256</v>
       </c>
       <c r="E8">
-        <v>15.77069987786679</v>
+        <v>15.75855720205089</v>
       </c>
       <c r="F8">
-        <v>17.31831106621238</v>
+        <v>16.79206246822729</v>
       </c>
       <c r="G8">
-        <v>21.3497668198835</v>
+        <v>20.13438730580363</v>
       </c>
       <c r="H8">
-        <v>1.573511585918542</v>
+        <v>1.576733973262953</v>
       </c>
       <c r="I8">
-        <v>2.754730153753454</v>
+        <v>2.655785848459181</v>
       </c>
       <c r="J8">
-        <v>8.898925028875526</v>
+        <v>9.035221671903169</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.72826675375761</v>
       </c>
       <c r="M8">
-        <v>11.22997129034178</v>
+        <v>8.553520494695595</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.74034123480882</v>
+        <v>11.30794271326472</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.3152792273253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.80945474302257</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.90137396645295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.71639087467305</v>
+        <v>13.60330666341699</v>
       </c>
       <c r="C9">
-        <v>9.00652632959695</v>
+        <v>9.213429463307991</v>
       </c>
       <c r="D9">
-        <v>5.800437348122949</v>
+        <v>5.909564945081468</v>
       </c>
       <c r="E9">
-        <v>17.79617238838969</v>
+        <v>17.73816534650983</v>
       </c>
       <c r="F9">
-        <v>18.0253456267067</v>
+        <v>17.34221630429226</v>
       </c>
       <c r="G9">
-        <v>22.12756972501399</v>
+        <v>20.67706829170801</v>
       </c>
       <c r="H9">
-        <v>1.998798817604581</v>
+        <v>2.012452205408148</v>
       </c>
       <c r="I9">
-        <v>2.540793217175811</v>
+        <v>2.605941411436731</v>
       </c>
       <c r="J9">
-        <v>8.836148127445547</v>
+        <v>8.976920206471304</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.34531062229933</v>
       </c>
       <c r="M9">
-        <v>12.46635726859243</v>
+        <v>8.514825770188541</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.5916328253406</v>
+        <v>12.57834608871319</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.39737837702527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.67383672426906</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.87574394909666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.86242812348038</v>
+        <v>14.70141353850677</v>
       </c>
       <c r="C10">
-        <v>9.412252191220647</v>
+        <v>9.780446633767401</v>
       </c>
       <c r="D10">
-        <v>6.163068791305616</v>
+        <v>6.321908813068121</v>
       </c>
       <c r="E10">
-        <v>18.59267505783365</v>
+        <v>18.50597871316712</v>
       </c>
       <c r="F10">
-        <v>18.43459339858035</v>
+        <v>17.5713529299258</v>
       </c>
       <c r="G10">
-        <v>22.50200491428481</v>
+        <v>21.30905167776749</v>
       </c>
       <c r="H10">
-        <v>2.290116178505181</v>
+        <v>2.291915731050167</v>
       </c>
       <c r="I10">
-        <v>2.76618892482257</v>
+        <v>2.80412778165716</v>
       </c>
       <c r="J10">
-        <v>8.764535722974239</v>
+        <v>8.735718294105489</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.00777522926874</v>
       </c>
       <c r="M10">
-        <v>13.32903872159563</v>
+        <v>8.484553060866993</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.56402629217342</v>
+        <v>13.4585265464963</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.38749142598813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.65198578264605</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.73822818474986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.60501701005164</v>
+        <v>15.45476204416627</v>
       </c>
       <c r="C11">
-        <v>9.764725395718337</v>
+        <v>10.12018121932034</v>
       </c>
       <c r="D11">
-        <v>6.544930438070005</v>
+        <v>6.739813982656147</v>
       </c>
       <c r="E11">
-        <v>14.2946369858484</v>
+        <v>14.20808021869016</v>
       </c>
       <c r="F11">
-        <v>17.55023893968972</v>
+        <v>16.58928765154948</v>
       </c>
       <c r="G11">
-        <v>20.79527306272852</v>
+        <v>20.55009349484428</v>
       </c>
       <c r="H11">
-        <v>3.0268234953116</v>
+        <v>3.024108074621098</v>
       </c>
       <c r="I11">
-        <v>2.841456629769237</v>
+        <v>2.870156372617736</v>
       </c>
       <c r="J11">
-        <v>8.424649339584342</v>
+        <v>8.164746238254455</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.51585607974093</v>
       </c>
       <c r="M11">
-        <v>13.93316812254242</v>
+        <v>7.981507628126463</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.72913586602268</v>
+        <v>14.04661047906395</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.60232491302054</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.80646441940426</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.90790561777164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.01546792085802</v>
+        <v>15.88304128289513</v>
       </c>
       <c r="C12">
-        <v>9.956069668263339</v>
+        <v>10.26464552821629</v>
       </c>
       <c r="D12">
-        <v>6.791130882101222</v>
+        <v>6.995827677358362</v>
       </c>
       <c r="E12">
-        <v>10.73565442164179</v>
+        <v>10.65531511521516</v>
       </c>
       <c r="F12">
-        <v>16.74283808046145</v>
+        <v>15.78622871380096</v>
       </c>
       <c r="G12">
-        <v>19.33337893698883</v>
+        <v>19.56909098058413</v>
       </c>
       <c r="H12">
-        <v>4.221128243239255</v>
+        <v>4.218445357189911</v>
       </c>
       <c r="I12">
-        <v>2.85736278606135</v>
+        <v>2.882729591556086</v>
       </c>
       <c r="J12">
-        <v>8.166536517877057</v>
+        <v>7.891309587066359</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.23906409523586</v>
       </c>
       <c r="M12">
-        <v>14.2649295268611</v>
+        <v>7.609400455674434</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.96558285093376</v>
+        <v>14.36253934319667</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.9729398495182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.03361316289656</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.30650864060913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.19621154694417</v>
+        <v>16.08808604556271</v>
       </c>
       <c r="C13">
-        <v>10.06842880554524</v>
+        <v>10.30966573763565</v>
       </c>
       <c r="D13">
-        <v>6.959558672112117</v>
+        <v>7.146126254273379</v>
       </c>
       <c r="E13">
-        <v>7.78707334710296</v>
+        <v>7.725185282458414</v>
       </c>
       <c r="F13">
-        <v>15.89551473134644</v>
+        <v>15.05600854823962</v>
       </c>
       <c r="G13">
-        <v>17.89106812765836</v>
+        <v>18.10444824627617</v>
       </c>
       <c r="H13">
-        <v>5.517901297848141</v>
+        <v>5.516547396374625</v>
       </c>
       <c r="I13">
-        <v>2.833624606083199</v>
+        <v>2.862228897999825</v>
       </c>
       <c r="J13">
-        <v>7.945066520282547</v>
+        <v>7.800490239338244</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.07488871787993</v>
       </c>
       <c r="M13">
-        <v>14.42253634190896</v>
+        <v>7.313866208433334</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.13253822718708</v>
+        <v>14.50426374040424</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.39755963381648</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.1718810334252</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.83509952259007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.21932220501763</v>
+        <v>16.13146066732558</v>
       </c>
       <c r="C14">
-        <v>10.11978384507769</v>
+        <v>10.3041846910998</v>
       </c>
       <c r="D14">
-        <v>7.045672770930171</v>
+        <v>7.206491974396019</v>
       </c>
       <c r="E14">
-        <v>6.538420267276128</v>
+        <v>6.502610418279247</v>
       </c>
       <c r="F14">
-        <v>15.27570103367381</v>
+        <v>14.56639518085528</v>
       </c>
       <c r="G14">
-        <v>16.88456229221324</v>
+        <v>16.86945122467386</v>
       </c>
       <c r="H14">
-        <v>6.458204215826786</v>
+        <v>6.457862965045204</v>
       </c>
       <c r="I14">
-        <v>2.800672951353069</v>
+        <v>2.834778598983892</v>
       </c>
       <c r="J14">
-        <v>7.807155307504638</v>
+        <v>7.795939840552791</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.00138315455986</v>
       </c>
       <c r="M14">
-        <v>14.45766678250395</v>
+        <v>7.145746523314009</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.91219375081795</v>
+        <v>14.5278986220351</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.02049504828815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.941716794692224</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.55896140903365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.17240390510628</v>
+        <v>16.09106818978753</v>
       </c>
       <c r="C15">
-        <v>10.1237381372844</v>
+        <v>10.2905922873593</v>
       </c>
       <c r="D15">
-        <v>7.051711777478651</v>
+        <v>7.200695093490156</v>
       </c>
       <c r="E15">
-        <v>6.407283172424044</v>
+        <v>6.381337399286449</v>
       </c>
       <c r="F15">
-        <v>15.10884015546226</v>
+        <v>14.4518508055906</v>
       </c>
       <c r="G15">
-        <v>16.63158265586404</v>
+        <v>16.47583982791528</v>
       </c>
       <c r="H15">
-        <v>6.673132704127253</v>
+        <v>6.673190355184874</v>
       </c>
       <c r="I15">
-        <v>2.785254242995152</v>
+        <v>2.822655916474908</v>
       </c>
       <c r="J15">
-        <v>7.779204280763517</v>
+        <v>7.8190029529245</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.996230193321312</v>
       </c>
       <c r="M15">
-        <v>14.43047602257353</v>
+        <v>7.116999586112054</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.598622440080748</v>
+        <v>14.49781104571947</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.9350540392602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.625171563654657</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.51003216821777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.6788722101455</v>
+        <v>15.61141953294528</v>
       </c>
       <c r="C16">
-        <v>9.945520148422311</v>
+        <v>10.07611277859403</v>
       </c>
       <c r="D16">
-        <v>6.878990887329682</v>
+        <v>6.982293680054433</v>
       </c>
       <c r="E16">
-        <v>6.41670794701651</v>
+        <v>6.411003620163886</v>
       </c>
       <c r="F16">
-        <v>15.06513953044594</v>
+        <v>14.57539062932438</v>
       </c>
       <c r="G16">
-        <v>16.71129673960665</v>
+        <v>15.88286399975903</v>
       </c>
       <c r="H16">
-        <v>6.449940525342241</v>
+        <v>6.448494649834158</v>
       </c>
       <c r="I16">
-        <v>2.696836732638414</v>
+        <v>2.748638486183745</v>
       </c>
       <c r="J16">
-        <v>7.851808743445451</v>
+        <v>8.070558338293608</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.13363020821095</v>
       </c>
       <c r="M16">
-        <v>14.05578038052623</v>
+        <v>7.249588833614057</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.410563799918043</v>
+        <v>14.12307194494414</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.04640222286336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.433265333170269</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.71960019523434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.2776985902517</v>
+        <v>15.21038007851042</v>
       </c>
       <c r="C17">
-        <v>9.779818550253829</v>
+        <v>9.910490983601719</v>
       </c>
       <c r="D17">
-        <v>6.696501834524891</v>
+        <v>6.78399063123894</v>
       </c>
       <c r="E17">
-        <v>6.88294488859854</v>
+        <v>6.875265926279732</v>
       </c>
       <c r="F17">
-        <v>15.36654701267302</v>
+        <v>14.91801838653129</v>
       </c>
       <c r="G17">
-        <v>17.30662944433026</v>
+        <v>16.1747386997839</v>
       </c>
       <c r="H17">
-        <v>5.694708831701878</v>
+        <v>5.692157393912142</v>
       </c>
       <c r="I17">
-        <v>2.646423630467905</v>
+        <v>2.706046069219917</v>
       </c>
       <c r="J17">
-        <v>7.979444936161357</v>
+        <v>8.268735918169634</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.28973863711652</v>
       </c>
       <c r="M17">
-        <v>13.74335457826227</v>
+        <v>7.427001991397342</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.927446049809815</v>
+        <v>13.81620774928997</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.32868619785547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.953144383270228</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.01792291623104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.92525572929766</v>
+        <v>14.84515381004747</v>
       </c>
       <c r="C18">
-        <v>9.590875511940816</v>
+        <v>9.754156081571489</v>
       </c>
       <c r="D18">
-        <v>6.483755599769454</v>
+        <v>6.572634695241736</v>
       </c>
       <c r="E18">
-        <v>8.77563084397219</v>
+        <v>8.750132952611171</v>
       </c>
       <c r="F18">
-        <v>16.01609588749682</v>
+        <v>15.53341897418626</v>
       </c>
       <c r="G18">
-        <v>18.45518206553392</v>
+        <v>17.13067829043905</v>
       </c>
       <c r="H18">
-        <v>4.446778014758499</v>
+        <v>4.451378622132416</v>
       </c>
       <c r="I18">
-        <v>2.620929427519047</v>
+        <v>2.682616407657444</v>
       </c>
       <c r="J18">
-        <v>8.177171186298896</v>
+        <v>8.476522215652</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.50641885764141</v>
       </c>
       <c r="M18">
-        <v>13.45059558817649</v>
+        <v>7.684831737896756</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.25150795501978</v>
+        <v>13.53543956596834</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.81066853739559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.3143188821527</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.46462951634693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.63017355338007</v>
+        <v>14.52830098635827</v>
       </c>
       <c r="C19">
-        <v>9.451841672773321</v>
+        <v>9.672104855857631</v>
       </c>
       <c r="D19">
-        <v>6.277796948736977</v>
+        <v>6.377841375479389</v>
       </c>
       <c r="E19">
-        <v>12.23257047627694</v>
+        <v>12.18627144943856</v>
       </c>
       <c r="F19">
-        <v>16.85116102318183</v>
+        <v>16.28955702883363</v>
       </c>
       <c r="G19">
-        <v>19.9053449507521</v>
+        <v>18.4292974242036</v>
       </c>
       <c r="H19">
-        <v>3.099282770658155</v>
+        <v>3.106032916439125</v>
       </c>
       <c r="I19">
-        <v>2.630500918035949</v>
+        <v>2.691806424843556</v>
       </c>
       <c r="J19">
-        <v>8.411070170607484</v>
+        <v>8.685335471956476</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.7555074639515</v>
       </c>
       <c r="M19">
-        <v>13.21253638741111</v>
+        <v>7.987008652659361</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.16215897203131</v>
+        <v>13.31316739760734</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.40189058826223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.23419520977899</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.98854862533883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.54780849575599</v>
+        <v>14.39933174437166</v>
       </c>
       <c r="C20">
-        <v>9.374738874626294</v>
+        <v>9.714722180666341</v>
       </c>
       <c r="D20">
-        <v>6.086196250592598</v>
+        <v>6.221944052725801</v>
       </c>
       <c r="E20">
-        <v>18.35168844969366</v>
+        <v>18.2737340761531</v>
       </c>
       <c r="F20">
-        <v>18.24195320418605</v>
+        <v>17.47829805223763</v>
       </c>
       <c r="G20">
-        <v>22.25396044927227</v>
+        <v>20.75204212360649</v>
       </c>
       <c r="H20">
-        <v>2.211351349683115</v>
+        <v>2.217190812219861</v>
       </c>
       <c r="I20">
-        <v>2.719315573958799</v>
+        <v>2.769096797375458</v>
       </c>
       <c r="J20">
-        <v>8.757853519081845</v>
+        <v>8.882336680488198</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.07158869159725</v>
       </c>
       <c r="M20">
-        <v>13.12531545188327</v>
+        <v>8.459385151469487</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.31174757565231</v>
+        <v>13.25195156964286</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.32644054524295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.39870792678695</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.75003722307206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.344630823302</v>
+        <v>15.16006607219897</v>
       </c>
       <c r="C21">
-        <v>9.644836607694829</v>
+        <v>10.08109475180764</v>
       </c>
       <c r="D21">
-        <v>6.314076016660097</v>
+        <v>6.541409410649325</v>
       </c>
       <c r="E21">
-        <v>19.7847802727952</v>
+        <v>19.67944612346008</v>
       </c>
       <c r="F21">
-        <v>18.76698334040863</v>
+        <v>17.59466689970201</v>
       </c>
       <c r="G21">
-        <v>22.91264721150719</v>
+        <v>22.88857013701365</v>
       </c>
       <c r="H21">
-        <v>2.461876180155942</v>
+        <v>2.454137506887688</v>
       </c>
       <c r="I21">
-        <v>2.892494697514226</v>
+        <v>2.914529923368104</v>
       </c>
       <c r="J21">
-        <v>8.766322494722274</v>
+        <v>8.251937462369012</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.81135417465379</v>
       </c>
       <c r="M21">
-        <v>13.71993847759559</v>
+        <v>8.436236668408014</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.42749882911292</v>
+        <v>13.85221614557346</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.47781683937389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.51627255014803</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.60152155359906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.86635498073607</v>
+        <v>15.6612019479359</v>
       </c>
       <c r="C22">
-        <v>9.800219004732677</v>
+        <v>10.2896582929861</v>
       </c>
       <c r="D22">
-        <v>6.464715917003276</v>
+        <v>6.753345857619875</v>
       </c>
       <c r="E22">
-        <v>20.41403546507627</v>
+        <v>20.29297478520445</v>
       </c>
       <c r="F22">
-        <v>19.08289641516856</v>
+        <v>17.63135909053083</v>
       </c>
       <c r="G22">
-        <v>23.29593131575957</v>
+        <v>24.36372379161485</v>
       </c>
       <c r="H22">
-        <v>2.611521164693407</v>
+        <v>2.595219933686079</v>
       </c>
       <c r="I22">
-        <v>2.99757066905605</v>
+        <v>3.000801545057705</v>
       </c>
       <c r="J22">
-        <v>8.766357004908759</v>
+        <v>7.880465672687739</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.6379001782532</v>
       </c>
       <c r="M22">
-        <v>14.10114221262252</v>
+        <v>8.416670161642486</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.99344243616326</v>
+        <v>14.2358469015796</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.56100624314905</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.08249047820151</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.47606489162317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.59871590969913</v>
+        <v>15.40350600169944</v>
       </c>
       <c r="C23">
-        <v>9.692536874278998</v>
+        <v>10.15564216002356</v>
       </c>
       <c r="D23">
-        <v>6.379205043952087</v>
+        <v>6.627997890413416</v>
       </c>
       <c r="E23">
-        <v>20.08446381403777</v>
+        <v>19.97189995544809</v>
       </c>
       <c r="F23">
-        <v>18.94269243864509</v>
+        <v>17.6733624717004</v>
       </c>
       <c r="G23">
-        <v>23.14135134694349</v>
+        <v>23.43927229367751</v>
       </c>
       <c r="H23">
-        <v>2.53237121011533</v>
+        <v>2.521097077504809</v>
       </c>
       <c r="I23">
-        <v>2.9372609281742</v>
+        <v>2.949783878246034</v>
       </c>
       <c r="J23">
-        <v>8.774785081359116</v>
+        <v>8.130916395193696</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.7522018651413</v>
       </c>
       <c r="M23">
-        <v>13.89305083575334</v>
+        <v>8.459869367076514</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.69033474477411</v>
+        <v>14.02792773041414</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.53772761511537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.77992932776888</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.58795338832574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.52400689085813</v>
+        <v>14.37296227886423</v>
       </c>
       <c r="C24">
-        <v>9.319320868888424</v>
+        <v>9.659155391461798</v>
       </c>
       <c r="D24">
-        <v>6.053857491933683</v>
+        <v>6.18998600457146</v>
       </c>
       <c r="E24">
-        <v>18.77952853742778</v>
+        <v>18.70019428210966</v>
       </c>
       <c r="F24">
-        <v>18.37440397903665</v>
+        <v>17.60246461207039</v>
       </c>
       <c r="G24">
-        <v>22.49129180576852</v>
+        <v>20.96110553822547</v>
       </c>
       <c r="H24">
-        <v>2.225366789467538</v>
+        <v>2.231170106473435</v>
       </c>
       <c r="I24">
-        <v>2.711865991878648</v>
+        <v>2.759399751246083</v>
       </c>
       <c r="J24">
-        <v>8.798753061188998</v>
+        <v>8.922453417852241</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.12714730893587</v>
       </c>
       <c r="M24">
-        <v>13.0856856161491</v>
+        <v>8.524073910664018</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.50066078943679</v>
+        <v>13.21395990187436</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.42766479535234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.58874412764354</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.84294165517191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.26360051005743</v>
+        <v>13.17161851119138</v>
       </c>
       <c r="C25">
-        <v>8.904786616110179</v>
+        <v>9.05115026829875</v>
       </c>
       <c r="D25">
-        <v>5.681075069281716</v>
+        <v>5.77234696795563</v>
       </c>
       <c r="E25">
-        <v>17.26503013111668</v>
+        <v>17.21933198226381</v>
       </c>
       <c r="F25">
-        <v>17.78312660346166</v>
+        <v>17.16472291613701</v>
       </c>
       <c r="G25">
-        <v>21.82848112563564</v>
+        <v>20.34283965640978</v>
       </c>
       <c r="H25">
-        <v>1.879610556518792</v>
+        <v>1.897712492311027</v>
       </c>
       <c r="I25">
-        <v>2.522370226514027</v>
+        <v>2.539124693502846</v>
       </c>
       <c r="J25">
-        <v>8.837382390007569</v>
+        <v>9.023652086178821</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.42970210591563</v>
       </c>
       <c r="M25">
-        <v>12.1545350612799</v>
+        <v>8.492367142778132</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.11815681929939</v>
+        <v>12.25834306928328</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.33643711349603</v>
+        <v>15.1971644877847</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.86098307035281</v>
       </c>
     </row>
   </sheetData>
